--- a/cv.xlsx
+++ b/cv.xlsx
@@ -171,9 +171,6 @@
     <t>Master of Arts</t>
   </si>
   <si>
-    <t>Begeleitende Seminare</t>
-  </si>
-  <si>
     <t>Portfolio</t>
   </si>
   <si>
@@ -388,6 +385,9 @@
   </si>
   <si>
     <t>Medienrecht</t>
+  </si>
+  <si>
+    <t>Begleitende Seminare</t>
   </si>
 </sst>
 </file>
@@ -436,8 +436,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -505,7 +513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="71">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -537,6 +545,10 @@
     <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -568,6 +580,10 @@
     <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -899,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E20"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1324,7 +1340,7 @@
     </row>
     <row r="54" spans="2:3">
       <c r="B54" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="2:3">
@@ -1332,7 +1348,7 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="2:3">
@@ -1340,7 +1356,7 @@
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="2:3">
@@ -1348,7 +1364,7 @@
         <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="2:3">
@@ -1356,12 +1372,12 @@
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="2:3">
@@ -1369,12 +1385,12 @@
         <v>24</v>
       </c>
       <c r="C60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="2:3">
@@ -1382,12 +1398,12 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="2:3">
@@ -1395,7 +1411,7 @@
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="2:3">
@@ -1403,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="2:3">
@@ -1416,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="2:3">
@@ -1424,7 +1440,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="2:3">
@@ -1432,7 +1448,7 @@
         <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="2:3">
@@ -1440,7 +1456,7 @@
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="2:3">
@@ -1448,7 +1464,7 @@
         <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="2:3">
@@ -1456,7 +1472,7 @@
         <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="2:3">
@@ -1464,12 +1480,12 @@
         <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="2:3">
@@ -1477,7 +1493,7 @@
         <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="2:3">
@@ -1485,7 +1501,7 @@
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="2:3">
@@ -1493,7 +1509,7 @@
         <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="2:3">
@@ -1501,7 +1517,7 @@
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="2:3">
@@ -1509,12 +1525,12 @@
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="2:3">
       <c r="B80" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" spans="2:3">
@@ -1522,7 +1538,7 @@
         <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="2:3">
@@ -1530,7 +1546,7 @@
         <v>2</v>
       </c>
       <c r="C82" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="2:3">
@@ -1538,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="2:3">
@@ -1546,7 +1562,7 @@
         <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="2:3">
@@ -1554,7 +1570,7 @@
         <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="2:3">
@@ -1562,12 +1578,12 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="2:3">
@@ -1575,7 +1591,7 @@
         <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="2:3">
@@ -1583,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="2:3">
@@ -1591,7 +1607,7 @@
         <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="2:3">
@@ -1599,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="2:3">
@@ -1607,7 +1623,7 @@
         <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="2:3">
@@ -1615,7 +1631,7 @@
         <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="2:3">
@@ -1623,7 +1639,7 @@
         <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="2:3">
@@ -1631,7 +1647,7 @@
         <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="2:3">
@@ -1639,7 +1655,7 @@
         <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="2:3">
@@ -1647,7 +1663,7 @@
         <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" spans="2:3">
@@ -1655,7 +1671,7 @@
         <v>2</v>
       </c>
       <c r="C98" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="2:3">
@@ -1663,7 +1679,7 @@
         <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="100" spans="2:3">
@@ -1671,12 +1687,12 @@
         <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101" spans="2:3">
       <c r="B101" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102" spans="2:3">
@@ -1684,7 +1700,7 @@
         <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103" spans="2:3">
@@ -1692,7 +1708,7 @@
         <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104" spans="2:3">
@@ -1700,7 +1716,7 @@
         <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="105" spans="2:3">
@@ -1708,7 +1724,7 @@
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="2:3">
@@ -1716,7 +1732,7 @@
         <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="2:3">
@@ -1724,12 +1740,12 @@
         <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108" spans="2:3">
       <c r="B108" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="109" spans="2:3">
@@ -1737,7 +1753,7 @@
         <v>2</v>
       </c>
       <c r="C109" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="110" spans="2:3">
@@ -1745,7 +1761,7 @@
         <v>2</v>
       </c>
       <c r="C110" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111" spans="2:3">
@@ -1753,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112" spans="2:3">
@@ -1761,7 +1777,7 @@
         <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113" spans="2:3">
@@ -1769,7 +1785,7 @@
         <v>2</v>
       </c>
       <c r="C113" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="2:3">
@@ -1777,7 +1793,7 @@
         <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115" spans="2:3">
@@ -1785,7 +1801,7 @@
         <v>2</v>
       </c>
       <c r="C115" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116" spans="2:3">
@@ -1793,7 +1809,7 @@
         <v>2</v>
       </c>
       <c r="C116" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="2:3">
@@ -1801,7 +1817,7 @@
         <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" spans="2:3">
@@ -1809,12 +1825,12 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119" spans="2:3">
       <c r="B119" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120" spans="2:3">
@@ -1822,7 +1838,7 @@
         <v>2</v>
       </c>
       <c r="C120" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121" spans="2:3">
@@ -1830,7 +1846,7 @@
         <v>3</v>
       </c>
       <c r="C121" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="122" spans="2:3">
@@ -1838,7 +1854,7 @@
         <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123" spans="2:3">
@@ -1846,7 +1862,7 @@
         <v>3</v>
       </c>
       <c r="C123" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="124" spans="2:3">
@@ -1854,12 +1870,12 @@
         <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="125" spans="2:3">
       <c r="B125" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126" spans="2:3">
@@ -1867,7 +1883,7 @@
         <v>2</v>
       </c>
       <c r="C126" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127" spans="2:3">
@@ -1875,7 +1891,7 @@
         <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
